--- a/biology/Botanique/Bolidomonas/Bolidomonas.xlsx
+++ b/biology/Botanique/Bolidomonas/Bolidomonas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Triparma est un genre d’algues unicellulaires de la famille des Triparmaceae dans la classe des Bolidophyceae . 
 </t>
@@ -511,9 +523,11 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a pour synonyme : Bolidomonas L.Guillou &amp; Chrét.-Dinet, 1999[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a pour synonyme : Bolidomonas L.Guillou &amp; Chrét.-Dinet, 1999.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (17 septembre 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (17 septembre 2017) :
 Triparma columacea B.C.Booth (espèce type)
 Triparma eleuthera Ichinomiya &amp; Lopes dos Santos
 Triparma laevis B.C.Booth
@@ -553,10 +569,10 @@
 Triparma retinervis B.C.Booth
 Triparma strigata B.C.Booth
 Triparma verrucosa B.C.Booth
-Selon World Register of Marine Species                               (17 septembre 2017)[2] :
+Selon World Register of Marine Species                               (17 septembre 2017) :
 Bolidomonas mediterranea L.Guillou &amp; M.-J.Chrétiennot-Dinet, 1999
 Bolidomonas pacifica L.Guillou &amp; M.-J.Chrétiennot-Dinet, 1999
-Selon World Register of Marine Species                               (17 septembre 2017)[2] :
+Selon World Register of Marine Species                               (17 septembre 2017) :
 Triparma columacea B.C.Booth, 1987
 Triparma laevis B.C.Booth, 1987
 Triparma retinervis B.C.Booth, 1987
